--- a/teaching/traditional_assets/database/data/nigeria/nigeria_healthcare_support_services.xlsx
+++ b/teaching/traditional_assets/database/data/nigeria/nigeria_healthcare_support_services.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0527</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="G2">
-        <v>0.2467605633802817</v>
+        <v>0.2078167115902965</v>
       </c>
       <c r="H2">
-        <v>0.2467605633802817</v>
+        <v>0.2078167115902965</v>
       </c>
       <c r="I2">
-        <v>0.06901408450704226</v>
+        <v>-0.398921832884097</v>
       </c>
       <c r="J2">
-        <v>0.03750765462339253</v>
+        <v>-0.398921832884097</v>
       </c>
       <c r="K2">
-        <v>0.125</v>
+        <v>-1.55</v>
       </c>
       <c r="L2">
-        <v>0.0352112676056338</v>
+        <v>-0.4177897574123989</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,37 +627,37 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.196</v>
+        <v>0.066</v>
       </c>
       <c r="V2">
-        <v>0.09074074074074073</v>
+        <v>0.02283737024221453</v>
       </c>
       <c r="W2">
-        <v>0.00992063492063492</v>
+        <v>-0.1220472440944882</v>
       </c>
       <c r="X2">
-        <v>0.1061737415544956</v>
+        <v>0.08519420346152869</v>
       </c>
       <c r="Y2">
-        <v>-0.09625310663386072</v>
+        <v>-0.2072414475560169</v>
       </c>
       <c r="Z2">
-        <v>0.2865676461091379</v>
+        <v>0.2967050543825976</v>
       </c>
       <c r="AA2">
-        <v>0.01074848029650012</v>
+        <v>-0.1183621241202815</v>
       </c>
       <c r="AB2">
-        <v>0.1061737415544956</v>
+        <v>0.08519420346152869</v>
       </c>
       <c r="AC2">
-        <v>-0.09542526125799551</v>
+        <v>-0.2035563275818102</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.196</v>
+        <v>-0.066</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.09979633401221995</v>
+        <v>-0.02337110481586402</v>
       </c>
       <c r="AK2">
-        <v>-0.01567498400511836</v>
+        <v>-0.006386684730017419</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP2">
-        <v>-0.2443890274314214</v>
+        <v>0.07719298245614035</v>
       </c>
     </row>
     <row r="3">
@@ -713,25 +713,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0527</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="G3">
-        <v>0.2467605633802817</v>
+        <v>0.2078167115902965</v>
       </c>
       <c r="H3">
-        <v>0.2467605633802817</v>
+        <v>0.2078167115902965</v>
       </c>
       <c r="I3">
-        <v>0.06901408450704226</v>
+        <v>-0.398921832884097</v>
       </c>
       <c r="J3">
-        <v>0.03750765462339253</v>
+        <v>-0.398921832884097</v>
       </c>
       <c r="K3">
-        <v>0.125</v>
+        <v>-1.55</v>
       </c>
       <c r="L3">
-        <v>0.0352112676056338</v>
+        <v>-0.4177897574123989</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +740,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,73 +749,73 @@
         <v>-0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.066</v>
+      </c>
+      <c r="V3">
+        <v>0.02283737024221453</v>
+      </c>
+      <c r="W3">
+        <v>-0.1220472440944882</v>
+      </c>
+      <c r="X3">
+        <v>0.08519420346152869</v>
+      </c>
+      <c r="Y3">
+        <v>-0.2072414475560169</v>
+      </c>
+      <c r="Z3">
+        <v>0.2967050543825976</v>
+      </c>
+      <c r="AA3">
+        <v>-0.1183621241202815</v>
+      </c>
+      <c r="AB3">
+        <v>0.08519420346152869</v>
+      </c>
+      <c r="AC3">
+        <v>-0.2035563275818102</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>-0.066</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.02337110481586402</v>
+      </c>
+      <c r="AK3">
+        <v>-0.006386684730017419</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
         <v>-0</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0.196</v>
-      </c>
-      <c r="V3">
-        <v>0.09074074074074073</v>
-      </c>
-      <c r="W3">
-        <v>0.00992063492063492</v>
-      </c>
-      <c r="X3">
-        <v>0.1061737415544956</v>
-      </c>
-      <c r="Y3">
-        <v>-0.09625310663386072</v>
-      </c>
-      <c r="Z3">
-        <v>0.2865676461091379</v>
-      </c>
-      <c r="AA3">
-        <v>0.01074848029650012</v>
-      </c>
-      <c r="AB3">
-        <v>0.1061737415544956</v>
-      </c>
-      <c r="AC3">
-        <v>-0.09542526125799551</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>-0.196</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.09979633401221995</v>
-      </c>
-      <c r="AK3">
-        <v>-0.01567498400511836</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
       <c r="AP3">
-        <v>-0.2443890274314214</v>
+        <v>0.07719298245614035</v>
       </c>
     </row>
   </sheetData>
